--- a/lowe/edd/data/SANMAHWS.xlsx
+++ b/lowe/edd/data/SANMAHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1370,14 +1370,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH53"/>
+  <dimension ref="A1:JI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1387,12 +1387,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1402,14 +1402,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1417,12 +1417,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2237,11 +2237,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3042,10 +3045,13 @@
         <v>440700</v>
       </c>
       <c r="JH9" s="11">
-        <v>438000</v>
+        <v>437800</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>439400</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3846,10 +3852,13 @@
         <v>419500</v>
       </c>
       <c r="JH10" s="11">
-        <v>417700</v>
+        <v>417600</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>422600</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4652,8 +4661,11 @@
       <c r="JH11" s="11">
         <v>20200</v>
       </c>
+      <c r="JI11" s="11">
+        <v>16800</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5456,8 +5468,11 @@
       <c r="JH12" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6237,7 +6252,7 @@
         <v>370400</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7017,7 +7032,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7797,7 +7812,7 @@
         <v>369100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>

--- a/lowe/edd/data/SANMAHWS.xlsx
+++ b/lowe/edd/data/SANMAHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI53"/>
+  <dimension ref="A1:JJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,12 +1387,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1402,14 +1402,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1417,12 +1417,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2240,11 +2240,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3048,10 +3051,13 @@
         <v>437800</v>
       </c>
       <c r="JI9" s="11">
-        <v>439400</v>
+        <v>439600</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>442200</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3855,10 +3861,13 @@
         <v>417600</v>
       </c>
       <c r="JI10" s="11">
-        <v>422600</v>
+        <v>422800</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>426300</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4664,8 +4673,11 @@
       <c r="JI11" s="11">
         <v>16800</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>15900</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5471,8 +5483,11 @@
       <c r="JI12" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6252,7 +6267,7 @@
         <v>370400</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7032,7 +7047,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7812,7 +7827,7 @@
         <v>369100</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>

--- a/lowe/edd/data/SANMAHWS.xlsx
+++ b/lowe/edd/data/SANMAHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1370,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ53"/>
+  <dimension ref="A1:JL53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,12 +1387,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1402,14 +1402,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1417,12 +1417,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2243,11 +2243,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3054,10 +3060,16 @@
         <v>439600</v>
       </c>
       <c r="JJ9" s="11">
-        <v>442200</v>
+        <v>442300</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>444900</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>445500</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3864,10 +3876,16 @@
         <v>422800</v>
       </c>
       <c r="JJ10" s="11">
-        <v>426300</v>
+        <v>426400</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>431300</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>433100</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4676,8 +4694,14 @@
       <c r="JJ11" s="11">
         <v>15900</v>
       </c>
+      <c r="JK11" s="11">
+        <v>13600</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>12500</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5486,8 +5510,14 @@
       <c r="JJ12" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6267,7 +6297,7 @@
         <v>370400</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7047,7 +7077,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7827,7 +7857,7 @@
         <v>369100</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
